--- a/src/test/java/file/开拓足球功能菜单设计1.0.xlsx
+++ b/src/test/java/file/开拓足球功能菜单设计1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28110" windowHeight="13050" activeTab="3"/>
+    <workbookView windowWidth="28110" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="开发计划" sheetId="6" r:id="rId1"/>
@@ -1809,7 +1809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1838,29 +1838,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1956,27 +1941,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2374,64 +2371,64 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
     </row>
     <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
     </row>
     <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2445,7 +2442,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2457,274 +2454,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="44" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:8">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="41" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="60"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" ht="14.25" spans="1:8">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="49" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="60"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="49" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="60"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" ht="14.25" spans="1:8">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="60"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="60"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="49" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="60"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="49" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="41" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="60"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="49" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="41" t="s">
+      <c r="D9" s="59"/>
+      <c r="E9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="60"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="49" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="41" t="s">
+      <c r="D10" s="59"/>
+      <c r="E10" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="60"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="41"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="41" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="41" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="36"/>
+      <c r="E13" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" ht="14.25" spans="1:8">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" ht="14.25" spans="1:8">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="10" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
     </row>
     <row r="16" ht="14.25" spans="1:8">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="41" t="s">
+      <c r="D16" s="59"/>
+      <c r="E16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H16">
@@ -2754,2327 +2751,2360 @@
   <sheetPr/>
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8:B13"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.1333333333333" style="48" customWidth="1"/>
-    <col min="2" max="2" width="25.6333333333333" style="48" customWidth="1"/>
-    <col min="3" max="3" width="28.8833333333333" style="48" customWidth="1"/>
-    <col min="4" max="4" width="51.3833333333333" style="48" customWidth="1"/>
-    <col min="5" max="5" width="9" style="48"/>
-    <col min="6" max="6" width="15.8916666666667" style="48" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="48" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="48"/>
+    <col min="1" max="1" width="18.1333333333333" style="43" customWidth="1"/>
+    <col min="2" max="2" width="25.6333333333333" style="43" customWidth="1"/>
+    <col min="3" max="3" width="28.8833333333333" style="43" customWidth="1"/>
+    <col min="4" max="4" width="51.3833333333333" style="43" customWidth="1"/>
+    <col min="5" max="5" width="9" style="43"/>
+    <col min="6" max="6" width="15.8916666666667" style="43" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="43" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="43" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="43" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:8">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="48" t="s">
+      <c r="E2" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:8">
-      <c r="A3" s="41"/>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="48" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="41"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="48" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:8">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="48" t="s">
+      <c r="E5" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:8">
-      <c r="A6" s="41"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="48" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:8">
-      <c r="A7" s="41"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="48" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="48" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="41"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="48" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="41"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="48" t="s">
+      <c r="D10" s="51"/>
+      <c r="E10" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="41"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="48" t="s">
+      <c r="D11" s="51"/>
+      <c r="E11" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="41"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="48" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="48" t="s">
+      <c r="D13" s="51"/>
+      <c r="E13" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="41"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="48" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="41"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="48" t="s">
+      <c r="D15" s="51"/>
+      <c r="E15" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="41"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="48" t="s">
+      <c r="D16" s="51"/>
+      <c r="E16" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="41"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="48" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="41"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53" t="s">
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="48" t="s">
+      <c r="D18" s="51"/>
+      <c r="E18" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50" t="s">
         <v>80</v>
       </c>
       <c r="C19" s="51" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="51"/>
-      <c r="E19" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="48" t="s">
+      <c r="E19" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="53" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51" t="s">
         <v>82</v>
       </c>
       <c r="D20" s="51"/>
-      <c r="E20" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="48" t="s">
+      <c r="E20" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="51" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="51"/>
-      <c r="E21" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="48" t="s">
+      <c r="E21" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="51" t="s">
         <v>84</v>
       </c>
       <c r="D22" s="51"/>
-      <c r="E22" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="48" t="s">
+      <c r="E22" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="51" t="s">
         <v>85</v>
       </c>
       <c r="D23" s="51"/>
-      <c r="E23" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="48" t="s">
+      <c r="E23" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="51" t="s">
         <v>86</v>
       </c>
       <c r="D24" s="51"/>
-      <c r="E24" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="48" t="s">
+      <c r="E24" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="51" t="s">
         <v>87</v>
       </c>
       <c r="D25" s="51"/>
-      <c r="E25" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="48" t="s">
+      <c r="E25" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="51" t="s">
         <v>88</v>
       </c>
       <c r="D26" s="51"/>
-      <c r="E26" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="48" t="s">
+      <c r="E26" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41" t="s">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50" t="s">
         <v>89</v>
       </c>
       <c r="C27" s="51" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="51"/>
-      <c r="E27" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="48" t="s">
+      <c r="E27" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="51" t="s">
         <v>91</v>
       </c>
       <c r="D28" s="51"/>
-      <c r="E28" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="48" t="s">
+      <c r="E28" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="53" t="s">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="48" t="s">
+      <c r="D29" s="51"/>
+      <c r="E29" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="53" t="s">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="48" t="s">
+      <c r="D30" s="51"/>
+      <c r="E30" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="53" t="s">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="48" t="s">
+      <c r="D31" s="51"/>
+      <c r="E31" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="53" t="s">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="48" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="56"/>
-      <c r="H33" s="48" t="s">
+      <c r="D33" s="50"/>
+      <c r="E33" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="53"/>
+      <c r="H33" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="41"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52" t="s">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="56"/>
-      <c r="H34" s="48" t="s">
+      <c r="D34" s="50"/>
+      <c r="E34" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="53"/>
+      <c r="H34" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="41"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52" t="s">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="56"/>
-      <c r="H35" s="48" t="s">
+      <c r="D35" s="50"/>
+      <c r="E35" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="53"/>
+      <c r="H35" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="41"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52" t="s">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="56"/>
-      <c r="H36" s="48" t="s">
+      <c r="D36" s="50"/>
+      <c r="E36" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="53"/>
+      <c r="H36" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="41"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="57" t="s">
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="56"/>
-      <c r="H37" s="48" t="s">
+      <c r="D37" s="50"/>
+      <c r="E37" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="53"/>
+      <c r="H37" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="41"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="57" t="s">
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="56"/>
-      <c r="H38" s="48" t="s">
+      <c r="D38" s="50"/>
+      <c r="E38" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="53"/>
+      <c r="H38" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="41"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="57" t="s">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="56"/>
-      <c r="H39" s="48" t="s">
+      <c r="D39" s="50"/>
+      <c r="E39" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="53"/>
+      <c r="H39" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="41"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="57" t="s">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="56"/>
-      <c r="H40" s="48" t="s">
+      <c r="D40" s="50"/>
+      <c r="E40" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="53"/>
+      <c r="H40" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41" t="s">
+      <c r="A41" s="50"/>
+      <c r="B41" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="48" t="s">
+      <c r="D41" s="50"/>
+      <c r="E41" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="51" t="s">
         <v>108</v>
       </c>
       <c r="D42" s="51"/>
-      <c r="E42" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="48" t="s">
+      <c r="E42" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41" t="s">
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="48" t="s">
+      <c r="D43" s="50"/>
+      <c r="E43" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41" t="s">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="48" t="s">
+      <c r="D44" s="50"/>
+      <c r="E44" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41" t="s">
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="48" t="s">
+      <c r="D45" s="50"/>
+      <c r="E45" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41" t="s">
+      <c r="A46" s="50"/>
+      <c r="B46" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="48" t="s">
+      <c r="D46" s="50"/>
+      <c r="E46" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41" t="s">
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="48" t="s">
+      <c r="D47" s="50"/>
+      <c r="E47" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41" t="s">
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="48" t="s">
+      <c r="D48" s="50"/>
+      <c r="E48" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41" t="s">
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="48" t="s">
+      <c r="D49" s="50"/>
+      <c r="E49" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41" t="s">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="48" t="s">
+      <c r="E50" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41" t="s">
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="48" t="s">
+      <c r="E51" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="41"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41" t="s">
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="48" t="s">
+      <c r="D52" s="50"/>
+      <c r="E52" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41" t="s">
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="48" t="s">
+      <c r="D53" s="50"/>
+      <c r="E53" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="52" t="s">
+      <c r="C54" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54" t="s">
+      <c r="D54" s="54"/>
+      <c r="E54" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52" t="s">
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54" t="s">
+      <c r="D55" s="54"/>
+      <c r="E55" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52" t="s">
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54" t="s">
+      <c r="D56" s="54"/>
+      <c r="E56" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52" t="s">
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54" t="s">
+      <c r="D57" s="54"/>
+      <c r="E57" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="52" t="s">
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F58" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54" t="s">
+      <c r="E58" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52" t="s">
+      <c r="A59" s="54"/>
+      <c r="B59" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="52" t="s">
+      <c r="C59" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54" t="s">
+      <c r="D59" s="54"/>
+      <c r="E59" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="52" t="s">
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54" t="s">
+      <c r="D60" s="54"/>
+      <c r="E60" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="52" t="s">
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54" t="s">
+      <c r="D61" s="54"/>
+      <c r="E61" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52" t="s">
+      <c r="A62" s="54"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54" t="s">
+      <c r="D62" s="54"/>
+      <c r="E62" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52" t="s">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="52" t="s">
+      <c r="C63" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54" t="s">
+      <c r="D63" s="54"/>
+      <c r="E63" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="52" t="s">
+      <c r="A64" s="54"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F64" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54" t="s">
+      <c r="D64" s="54"/>
+      <c r="E64" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52" t="s">
+      <c r="A65" s="54"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F65" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54" t="s">
+      <c r="D65" s="54"/>
+      <c r="E65" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="52" t="s">
+      <c r="A66" s="54"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F66" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54" t="s">
+      <c r="D66" s="54"/>
+      <c r="E66" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="52" t="s">
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F67" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54" t="s">
+      <c r="D67" s="54"/>
+      <c r="E67" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52" t="s">
+      <c r="A68" s="54"/>
+      <c r="B68" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F68" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54" t="s">
+      <c r="D68" s="54"/>
+      <c r="E68" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="55"/>
+      <c r="H68" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52" t="s">
+      <c r="A69" s="54"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F69" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54" t="s">
+      <c r="D69" s="54"/>
+      <c r="E69" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52" t="s">
+      <c r="A70" s="54"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F70" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54" t="s">
+      <c r="D70" s="54"/>
+      <c r="E70" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52" t="s">
+      <c r="A71" s="54"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F71" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54" t="s">
+      <c r="D71" s="54"/>
+      <c r="E71" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F71" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="55"/>
+      <c r="H71" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="52"/>
-      <c r="B72" s="52" t="s">
+      <c r="A72" s="54"/>
+      <c r="B72" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="52" t="s">
+      <c r="C72" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="D72" s="52" t="s">
+      <c r="D72" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="E72" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F72" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54" t="s">
+      <c r="E72" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="52"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="52" t="s">
+      <c r="A73" s="54"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F73" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54" t="s">
+      <c r="D73" s="54"/>
+      <c r="E73" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="52"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="52" t="s">
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F74" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54" t="s">
+      <c r="D74" s="54"/>
+      <c r="E74" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="52"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52" t="s">
+      <c r="A75" s="54"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="D75" s="52"/>
-      <c r="E75" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F75" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54" t="s">
+      <c r="D75" s="54"/>
+      <c r="E75" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="52"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52" t="s">
+      <c r="A76" s="54"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="D76" s="52"/>
-      <c r="E76" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F76" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54" t="s">
+      <c r="D76" s="54"/>
+      <c r="E76" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="52"/>
-      <c r="B77" s="52" t="s">
+      <c r="A77" s="54"/>
+      <c r="B77" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="52" t="s">
+      <c r="C77" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="D77" s="52"/>
-      <c r="E77" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F77" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54" t="s">
+      <c r="D77" s="54"/>
+      <c r="E77" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F77" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="52"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="52" t="s">
+      <c r="A78" s="54"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="D78" s="52"/>
-      <c r="E78" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F78" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54" t="s">
+      <c r="D78" s="54"/>
+      <c r="E78" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F78" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="52"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52" t="s">
+      <c r="A79" s="54"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="D79" s="52" t="s">
+      <c r="D79" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="E79" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F79" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54" t="s">
+      <c r="E79" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F79" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="52"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="52" t="s">
+      <c r="A80" s="54"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="D80" s="52"/>
-      <c r="E80" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F80" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54" t="s">
+      <c r="D80" s="54"/>
+      <c r="E80" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F80" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="52"/>
-      <c r="B81" s="52"/>
-      <c r="C81" s="52" t="s">
+      <c r="A81" s="54"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="D81" s="52"/>
-      <c r="E81" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F81" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="54"/>
-      <c r="H81" s="54" t="s">
+      <c r="D81" s="54"/>
+      <c r="E81" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F81" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="52"/>
-      <c r="B82" s="52" t="s">
+      <c r="A82" s="54"/>
+      <c r="B82" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="C82" s="52" t="s">
+      <c r="C82" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="D82" s="52"/>
-      <c r="E82" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F82" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="54"/>
-      <c r="H82" s="54" t="s">
+      <c r="D82" s="54"/>
+      <c r="E82" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F82" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="52"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="52" t="s">
+      <c r="A83" s="54"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F83" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54" t="s">
+      <c r="D83" s="54"/>
+      <c r="E83" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="52"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="52" t="s">
+      <c r="A84" s="54"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="D84" s="52"/>
-      <c r="E84" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F84" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54" t="s">
+      <c r="D84" s="54"/>
+      <c r="E84" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="52"/>
-      <c r="B85" s="52"/>
-      <c r="C85" s="52" t="s">
+      <c r="A85" s="54"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="D85" s="52"/>
-      <c r="E85" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F85" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54" t="s">
+      <c r="D85" s="54"/>
+      <c r="E85" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="55"/>
+      <c r="H85" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="52"/>
-      <c r="B86" s="52" t="s">
+      <c r="A86" s="54"/>
+      <c r="B86" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="C86" s="52" t="s">
+      <c r="C86" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F86" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86" s="54"/>
-      <c r="H86" s="54" t="s">
+      <c r="D86" s="54"/>
+      <c r="E86" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="52"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52" t="s">
+      <c r="A87" s="54"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F87" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="54"/>
-      <c r="H87" s="54" t="s">
+      <c r="D87" s="54"/>
+      <c r="E87" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F87" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="55"/>
+      <c r="H87" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="52"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="52" t="s">
+      <c r="A88" s="54"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F88" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" s="54"/>
-      <c r="H88" s="54" t="s">
+      <c r="D88" s="54"/>
+      <c r="E88" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="41" t="s">
+      <c r="A89" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="B89" s="52" t="s">
+      <c r="B89" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="C89" s="52" t="s">
+      <c r="C89" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="D89" s="52"/>
-      <c r="E89" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F89" s="48" t="s">
+      <c r="D89" s="54"/>
+      <c r="E89" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F89" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G89" s="56"/>
-      <c r="H89" s="54" t="s">
+      <c r="H89" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="41"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="52" t="s">
+      <c r="A90" s="36"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="D90" s="52"/>
-      <c r="E90" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F90" s="48" t="s">
+      <c r="D90" s="54"/>
+      <c r="E90" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F90" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G90" s="56"/>
-      <c r="H90" s="54" t="s">
+      <c r="H90" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="41"/>
-      <c r="B91" s="52" t="s">
+      <c r="A91" s="36"/>
+      <c r="B91" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="C91" s="52" t="s">
+      <c r="C91" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="D91" s="52"/>
-      <c r="E91" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F91" s="48" t="s">
+      <c r="D91" s="54"/>
+      <c r="E91" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G91" s="56"/>
-      <c r="H91" s="54" t="s">
+      <c r="H91" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="41"/>
-      <c r="B92" s="52"/>
-      <c r="C92" s="52" t="s">
+      <c r="A92" s="36"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="D92" s="52"/>
-      <c r="E92" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F92" s="48" t="s">
+      <c r="D92" s="54"/>
+      <c r="E92" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F92" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G92" s="56"/>
-      <c r="H92" s="54" t="s">
+      <c r="H92" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="41"/>
-      <c r="B93" s="52" t="s">
+      <c r="A93" s="36"/>
+      <c r="B93" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="C93" s="52" t="s">
+      <c r="C93" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="D93" s="52"/>
-      <c r="E93" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F93" s="48" t="s">
+      <c r="D93" s="54"/>
+      <c r="E93" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F93" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G93" s="56"/>
-      <c r="H93" s="54" t="s">
+      <c r="H93" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="41"/>
-      <c r="B94" s="52"/>
-      <c r="C94" s="52" t="s">
+      <c r="A94" s="36"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="D94" s="52"/>
-      <c r="E94" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F94" s="48" t="s">
+      <c r="D94" s="54"/>
+      <c r="E94" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F94" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G94" s="56"/>
-      <c r="H94" s="54" t="s">
+      <c r="H94" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="41"/>
-      <c r="B95" s="52" t="s">
+      <c r="A95" s="36"/>
+      <c r="B95" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="C95" s="52" t="s">
+      <c r="C95" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="D95" s="52"/>
-      <c r="E95" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F95" s="48" t="s">
+      <c r="D95" s="54"/>
+      <c r="E95" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F95" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G95" s="56"/>
-      <c r="H95" s="54" t="s">
+      <c r="H95" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="41"/>
-      <c r="B96" s="52"/>
-      <c r="C96" s="52" t="s">
+      <c r="A96" s="36"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="D96" s="52"/>
-      <c r="E96" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F96" s="48" t="s">
+      <c r="D96" s="54"/>
+      <c r="E96" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F96" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G96" s="56"/>
-      <c r="H96" s="54" t="s">
+      <c r="H96" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="41"/>
-      <c r="B97" s="52" t="s">
+      <c r="A97" s="36"/>
+      <c r="B97" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="C97" s="52" t="s">
+      <c r="C97" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="D97" s="52"/>
-      <c r="E97" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F97" s="48" t="s">
+      <c r="D97" s="54"/>
+      <c r="E97" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F97" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G97" s="56"/>
-      <c r="H97" s="54" t="s">
+      <c r="H97" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="41"/>
-      <c r="B98" s="52"/>
-      <c r="C98" s="52" t="s">
+      <c r="A98" s="36"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="D98" s="52"/>
-      <c r="E98" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F98" s="48" t="s">
+      <c r="D98" s="54"/>
+      <c r="E98" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F98" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G98" s="56"/>
-      <c r="H98" s="54" t="s">
+      <c r="H98" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="41"/>
-      <c r="B99" s="52" t="s">
+      <c r="A99" s="36"/>
+      <c r="B99" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="52" t="s">
+      <c r="C99" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="D99" s="52"/>
-      <c r="E99" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F99" s="48" t="s">
+      <c r="D99" s="54"/>
+      <c r="E99" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F99" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G99" s="56"/>
-      <c r="H99" s="54" t="s">
+      <c r="H99" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="41"/>
-      <c r="B100" s="52" t="s">
+      <c r="A100" s="36"/>
+      <c r="B100" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C100" s="52" t="s">
+      <c r="C100" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="D100" s="52"/>
-      <c r="E100" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F100" s="48" t="s">
+      <c r="D100" s="54"/>
+      <c r="E100" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F100" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G100" s="56"/>
-      <c r="H100" s="54" t="s">
+      <c r="H100" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="41"/>
-      <c r="B101" s="52"/>
-      <c r="C101" s="52" t="s">
+      <c r="A101" s="36"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="D101" s="52"/>
-      <c r="E101" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F101" s="48" t="s">
+      <c r="D101" s="54"/>
+      <c r="E101" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F101" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G101" s="56"/>
-      <c r="H101" s="54" t="s">
+      <c r="H101" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="41"/>
-      <c r="B102" s="52" t="s">
+      <c r="A102" s="36"/>
+      <c r="B102" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="C102" s="52" t="s">
+      <c r="C102" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="D102" s="52"/>
-      <c r="E102" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F102" s="48" t="s">
+      <c r="D102" s="54"/>
+      <c r="E102" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F102" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G102" s="56"/>
-      <c r="H102" s="54" t="s">
+      <c r="H102" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="41" t="s">
+      <c r="A103" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="B103" s="52" t="s">
+      <c r="B103" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="C103" s="52" t="s">
+      <c r="C103" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="D103" s="52"/>
-      <c r="E103" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F103" s="48" t="s">
+      <c r="D103" s="54"/>
+      <c r="E103" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F103" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G103" s="56"/>
-      <c r="H103" s="54" t="s">
+      <c r="H103" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="41"/>
-      <c r="B104" s="52"/>
-      <c r="C104" s="52" t="s">
+      <c r="A104" s="36"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="D104" s="52"/>
-      <c r="E104" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F104" s="48" t="s">
+      <c r="D104" s="54"/>
+      <c r="E104" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F104" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G104" s="56"/>
-      <c r="H104" s="54" t="s">
+      <c r="H104" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="41"/>
-      <c r="B105" s="52"/>
-      <c r="C105" s="52" t="s">
+      <c r="A105" s="36"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="D105" s="52"/>
-      <c r="E105" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F105" s="48" t="s">
+      <c r="D105" s="54"/>
+      <c r="E105" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G105" s="56"/>
-      <c r="H105" s="54" t="s">
+      <c r="H105" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="41"/>
-      <c r="B106" s="52"/>
-      <c r="C106" s="52" t="s">
+      <c r="A106" s="36"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="D106" s="52"/>
-      <c r="E106" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F106" s="48" t="s">
+      <c r="D106" s="54"/>
+      <c r="E106" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F106" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G106" s="56"/>
-      <c r="H106" s="54" t="s">
+      <c r="H106" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="107" ht="33" customHeight="1" spans="1:8">
-      <c r="A107" s="41"/>
-      <c r="B107" s="52"/>
-      <c r="C107" s="52" t="s">
+      <c r="A107" s="36"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="D107" s="52" t="s">
+      <c r="D107" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="E107" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F107" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H107" s="54" t="s">
+      <c r="E107" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F107" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="41"/>
-      <c r="B108" s="52"/>
-      <c r="C108" s="52" t="s">
+      <c r="A108" s="36"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D108" s="52"/>
-      <c r="E108" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F108" s="48" t="s">
+      <c r="D108" s="54"/>
+      <c r="E108" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F108" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G108" s="56"/>
-      <c r="H108" s="54" t="s">
+      <c r="H108" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="41"/>
-      <c r="B109" s="52"/>
-      <c r="C109" s="52" t="s">
+      <c r="A109" s="36"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="D109" s="52"/>
-      <c r="E109" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F109" s="48" t="s">
+      <c r="D109" s="54"/>
+      <c r="E109" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F109" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G109" s="56"/>
-      <c r="H109" s="54" t="s">
+      <c r="H109" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="41"/>
-      <c r="B110" s="52"/>
-      <c r="C110" s="52" t="s">
+      <c r="A110" s="36"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="D110" s="52"/>
-      <c r="E110" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F110" s="48" t="s">
+      <c r="D110" s="54"/>
+      <c r="E110" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F110" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G110" s="56"/>
-      <c r="H110" s="54" t="s">
+      <c r="H110" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="41"/>
-      <c r="B111" s="52"/>
-      <c r="C111" s="52" t="s">
+      <c r="A111" s="36"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="D111" s="52"/>
-      <c r="E111" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F111" s="48" t="s">
+      <c r="D111" s="54"/>
+      <c r="E111" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F111" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G111" s="56"/>
-      <c r="H111" s="54" t="s">
+      <c r="H111" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="41"/>
-      <c r="B112" s="52"/>
-      <c r="C112" s="52" t="s">
+      <c r="A112" s="36"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="D112" s="52"/>
-      <c r="E112" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F112" s="48" t="s">
+      <c r="D112" s="54"/>
+      <c r="E112" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F112" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G112" s="56"/>
-      <c r="H112" s="54" t="s">
+      <c r="H112" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="41"/>
-      <c r="B113" s="52"/>
-      <c r="C113" s="52" t="s">
+      <c r="A113" s="36"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="D113" s="52"/>
-      <c r="E113" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F113" s="48" t="s">
+      <c r="D113" s="54"/>
+      <c r="E113" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F113" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G113" s="56"/>
-      <c r="H113" s="54" t="s">
+      <c r="H113" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="41"/>
-      <c r="B114" s="52"/>
-      <c r="C114" s="52" t="s">
+      <c r="A114" s="36"/>
+      <c r="B114" s="54"/>
+      <c r="C114" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="D114" s="52"/>
-      <c r="E114" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F114" s="48" t="s">
+      <c r="D114" s="54"/>
+      <c r="E114" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F114" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G114" s="56"/>
-      <c r="H114" s="54" t="s">
+      <c r="H114" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="41"/>
-      <c r="B115" s="52"/>
-      <c r="C115" s="52" t="s">
+      <c r="A115" s="36"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D115" s="52"/>
-      <c r="E115" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F115" s="48" t="s">
+      <c r="D115" s="54"/>
+      <c r="E115" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F115" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G115" s="56"/>
-      <c r="H115" s="54" t="s">
+      <c r="H115" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="41"/>
-      <c r="B116" s="52" t="s">
+      <c r="A116" s="36"/>
+      <c r="B116" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="C116" s="52" t="s">
+      <c r="C116" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="D116" s="52"/>
-      <c r="E116" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F116" s="48" t="s">
+      <c r="D116" s="54"/>
+      <c r="E116" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F116" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G116" s="56"/>
-      <c r="H116" s="54" t="s">
+      <c r="H116" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="41"/>
-      <c r="B117" s="52"/>
-      <c r="C117" s="52" t="s">
+      <c r="A117" s="36"/>
+      <c r="B117" s="54"/>
+      <c r="C117" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D117" s="52"/>
-      <c r="E117" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F117" s="48" t="s">
+      <c r="D117" s="54"/>
+      <c r="E117" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F117" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G117" s="56"/>
-      <c r="H117" s="54" t="s">
+      <c r="H117" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="41"/>
-      <c r="B118" s="52"/>
-      <c r="C118" s="52" t="s">
+      <c r="A118" s="36"/>
+      <c r="B118" s="54"/>
+      <c r="C118" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D118" s="52" t="s">
+      <c r="D118" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="E118" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F118" s="48" t="s">
+      <c r="E118" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F118" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G118" s="56"/>
-      <c r="H118" s="54" t="s">
+      <c r="H118" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="41"/>
-      <c r="B119" s="52"/>
-      <c r="C119" s="52" t="s">
+      <c r="A119" s="36"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D119" s="52" t="s">
+      <c r="D119" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="E119" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F119" s="48" t="s">
+      <c r="E119" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F119" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G119" s="56"/>
-      <c r="H119" s="54" t="s">
+      <c r="H119" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="41"/>
-      <c r="B120" s="52" t="s">
+      <c r="A120" s="36"/>
+      <c r="B120" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="C120" s="52" t="s">
+      <c r="C120" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="D120" s="52"/>
-      <c r="E120" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F120" s="48" t="s">
+      <c r="D120" s="54"/>
+      <c r="E120" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F120" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G120" s="56"/>
-      <c r="H120" s="54" t="s">
+      <c r="H120" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="41"/>
-      <c r="B121" s="52"/>
-      <c r="C121" s="52" t="s">
+      <c r="A121" s="36"/>
+      <c r="B121" s="54"/>
+      <c r="C121" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="D121" s="52"/>
-      <c r="E121" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F121" s="48" t="s">
+      <c r="D121" s="54"/>
+      <c r="E121" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F121" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G121" s="56"/>
-      <c r="H121" s="54" t="s">
+      <c r="H121" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="41"/>
-      <c r="B122" s="52"/>
-      <c r="C122" s="52" t="s">
+      <c r="A122" s="36"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="D122" s="52"/>
-      <c r="E122" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F122" s="48" t="s">
+      <c r="D122" s="54"/>
+      <c r="E122" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F122" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G122" s="56"/>
-      <c r="H122" s="54" t="s">
+      <c r="H122" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="41"/>
-      <c r="B123" s="52"/>
-      <c r="C123" s="52" t="s">
+      <c r="A123" s="36"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="D123" s="52"/>
-      <c r="E123" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F123" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H123" s="54" t="s">
+      <c r="D123" s="54"/>
+      <c r="E123" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F123" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="41" t="s">
+      <c r="A124" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B124" s="41" t="s">
+      <c r="B124" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C124" s="41"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F124" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H124" s="54" t="s">
+      <c r="C124" s="36"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F124" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" s="55" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5133,7 +5163,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
@@ -5149,872 +5179,872 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="21" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:8">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31" t="s">
+      <c r="D2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="27" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31" t="s">
+      <c r="D3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="H3" s="32"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" ht="14.25" spans="1:8">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31" t="s">
+      <c r="D4" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="H4" s="32"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" ht="14.25" spans="1:8">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31" t="s">
+      <c r="D5" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="H5" s="32"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="34" t="s">
+      <c r="D7" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="34" t="s">
+      <c r="D8" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="34" t="s">
+      <c r="D9" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="34" t="s">
+      <c r="D10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="34" t="s">
+      <c r="D12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="34" t="s">
+      <c r="D13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="34" t="s">
+      <c r="D14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="34" t="s">
+      <c r="D15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="34" t="s">
+      <c r="D16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="34" t="s">
+      <c r="D17" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="34" t="s">
+      <c r="D18" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="31" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="34" t="s">
+      <c r="D19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="31" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="34" t="s">
+      <c r="D20" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="34" t="s">
+      <c r="D21" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="31" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="34" t="s">
+      <c r="D22" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="31" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="34" t="s">
+      <c r="D23" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="D24" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="34" t="s">
+      <c r="D24" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="34" t="s">
+      <c r="D25" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" ht="14.25" spans="1:8">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="35" t="s">
+      <c r="E32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="27" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:8">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="37" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="35" t="s">
+      <c r="E33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="H33" s="32"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" ht="14.25" spans="1:8">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="37" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="35" t="s">
+      <c r="E34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="H34" s="32"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" ht="14.25" spans="1:8">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="37" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="35" t="s">
+      <c r="E35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="H35" s="32"/>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="34" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="34" t="s">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="34" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="34" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="34" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="34" t="s">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="34" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
     </row>
     <row r="45" hidden="1" spans="1:8">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
     </row>
     <row r="46" hidden="1" spans="1:8">
-      <c r="A46" s="46"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="45" t="s">
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
     </row>
     <row r="47" hidden="1" spans="1:8">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="45" t="s">
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
     </row>
     <row r="48" hidden="1" spans="1:8">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="45" t="s">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
     </row>
     <row r="49" hidden="1" spans="1:8">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
     </row>
     <row r="50" hidden="1" spans="1:8">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="45" t="s">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="43"/>
-      <c r="B52" s="40" t="s">
+      <c r="A52" s="38"/>
+      <c r="B52" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="41"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="34" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H53">
@@ -6186,37 +6216,37 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>284</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" ht="14.25" spans="1:7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="15" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="12" t="s">
         <v>285</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="23"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>286</v>
       </c>
@@ -6231,7 +6261,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="23"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5" t="s">
         <v>288</v>
@@ -6244,7 +6274,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="23"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>289</v>
       </c>
@@ -6259,7 +6289,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" ht="14.25" spans="1:7">
-      <c r="A13" s="23"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5" t="s">
         <v>291</v>
@@ -6272,7 +6302,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="23"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="2" t="s">
         <v>292</v>
       </c>
@@ -6287,7 +6317,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" ht="14.25" spans="1:7">
-      <c r="A15" s="23"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5" t="s">
         <v>293</v>
@@ -6300,7 +6330,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="23"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="2"/>
       <c r="C16" s="5" t="s">
         <v>294</v>
@@ -6313,7 +6343,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" ht="14.25" spans="1:7">
-      <c r="A17" s="23"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="2"/>
       <c r="C17" s="5" t="s">
         <v>295</v>
@@ -6326,7 +6356,7 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="23"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2"/>
       <c r="C18" s="5" t="s">
         <v>296</v>
@@ -6339,7 +6369,7 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" ht="14.25" spans="1:7">
-      <c r="A19" s="23"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="2"/>
       <c r="C19" s="5" t="s">
         <v>297</v>
@@ -6352,7 +6382,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="24"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="2"/>
       <c r="C20" s="5" t="s">
         <v>298</v>
@@ -6478,10 +6508,10 @@
       <c r="C5" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="10"/>
+      <c r="D5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
         <v>304</v>
@@ -6492,13 +6522,13 @@
       <c r="B6" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="10"/>
+      <c r="D6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
         <v>307</v>
@@ -6506,16 +6536,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="2"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>309</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
         <v>310</v>
@@ -6523,10 +6553,10 @@
     </row>
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="2"/>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>312</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -6541,13 +6571,13 @@
       <c r="B9" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="5"/>
@@ -6556,21 +6586,21 @@
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:8">
-      <c r="A10" s="14"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15" t="s">
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
         <v>316</v>
       </c>
       <c r="H10" t="s">
@@ -6578,19 +6608,19 @@
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:8">
-      <c r="A11" s="14"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15" t="s">
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="s">
         <v>319</v>
       </c>
       <c r="H11" t="s">
@@ -6600,156 +6630,156 @@
     <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" ht="14.25" spans="1:7">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="D13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="D14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" ht="14.25" spans="1:7">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10" t="s">
         <v>325</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>327</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" ht="14.25" spans="1:7">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="10" t="s">
         <v>328</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="10" t="s">
         <v>330</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" ht="14.25" spans="1:7">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10" t="s">
         <v>331</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="10" t="s">
         <v>332</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" ht="14.25" spans="1:7">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="15" t="s">
         <v>333</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" ht="14.25" spans="1:6">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="15" t="s">
         <v>335</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="19"/>
+      <c r="F22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
